--- a/REVER_DailyTracker_20201019.xlsx
+++ b/REVER_DailyTracker_20201019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eswar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\October\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A05154-56D4-45F5-B5FC-986D2A2128F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724B9271-800C-49A3-8E13-FD4EFF4B3C4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="63">
   <si>
     <t>Task</t>
   </si>
@@ -218,166 +218,13 @@
     <t>2 Correction of Password Management task is pending</t>
   </si>
   <si>
-    <t>Application- Login page and Front end  sample Layout design. Sample completed</t>
-  </si>
-  <si>
-    <t>Application- Front end  sample 2nd Layout design. Sample completed</t>
-  </si>
-  <si>
-    <t>QMVAR , Hayaai</t>
-  </si>
-  <si>
-    <t>Application- login design and Hayaai Flyer design</t>
-  </si>
-  <si>
-    <t>Hayaai</t>
-  </si>
-  <si>
-    <t>Two sample Flyer design</t>
-  </si>
-  <si>
-    <t>1) Flyer design completed                                                                                       2) ID card created                                                                            3) Name card created</t>
-  </si>
-  <si>
-    <t>Analysis - File Upload - Design completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hayaai </t>
-  </si>
-  <si>
-    <t>Website Translation replaced in php file</t>
-  </si>
-  <si>
-    <t>Hayaai ,QMVAR</t>
-  </si>
-  <si>
-    <t>1) Contact Card 2 samples designed                                      2) QMVAR - 2pages design completed</t>
-  </si>
-  <si>
-    <t>1) Acknowledgement screen designed                                      2) QMVAR - Activity Report page design completed</t>
-  </si>
-  <si>
-    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site &amp; Regression testing on B2C app and Hayaai site</t>
-  </si>
-  <si>
-    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site, Retesting on B2B app &amp; Regression testing on B2C app and Hayaai site</t>
-  </si>
-  <si>
-    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site, Retesting &amp; Regression testing on B2C app and Hayaai site</t>
-  </si>
-  <si>
-    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site. Regression testing on B2C app and Hayaai site</t>
-  </si>
-  <si>
-    <t>QMVAR -Analysis Data page design and alignment issues completed</t>
-  </si>
-  <si>
-    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site. Regression testing, Retesting on B2C app and Hayaai site</t>
-  </si>
-  <si>
-    <t>creating Setup file</t>
-  </si>
-  <si>
-    <t>Layout Designing</t>
-  </si>
-  <si>
-    <t>Emplogin</t>
-  </si>
-  <si>
-    <t>Adding assests Detatils</t>
-  </si>
-  <si>
-    <t>Adding assests Detatils and responisble view</t>
-  </si>
-  <si>
-    <t>stored management added in Monthly target</t>
-  </si>
-  <si>
-    <t>adding layout in analysis file upload</t>
-  </si>
-  <si>
-    <t>adding layout in analysis file Export</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, SONY SID, QMVAR Setup File Create</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, QMVAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, EMP_RegLogin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, Sony SID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, Sony SID, QMVAR Recovery(CSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, Sony SID, QMVAR (CSS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> best_search_all8, best_report_all8, SID Sony </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, QMVAR Setup File Create, QMVAR CSS </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, MrMax import File Check, QMVAR CSS </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, Employee RegLogin Application</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, SONY SID (export import checking)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, CSS QMVAR (Recovery Menu), Sony File Export</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, Sony File Export selenium, </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, QMVAR migration, Sony File Export Selenium</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Selenium log file, Son Seleniumy File Export</t>
-  </si>
-  <si>
-    <t>Sony SID Issue File Checking</t>
-  </si>
-  <si>
-    <t>QMVAR CSS Progress</t>
-  </si>
-  <si>
-    <t>Salary tab Page (Modification) Add Column</t>
-  </si>
-  <si>
-    <t>Employee RegLogin Application All Pages design Changes(Personal Info, Education &amp; experience , Bank Details Completed) tabs Completed</t>
-  </si>
-  <si>
-    <t>Sony Daily RepairSetNp, LogFile Selenium</t>
-  </si>
-  <si>
-    <t>Sony Export,LogFile Selenium</t>
-  </si>
-  <si>
-    <t>DRS Count - Saw Discount changes and Issue</t>
-  </si>
-  <si>
-    <t>DRS Count - Saw Discount Summary &amp; Details</t>
-  </si>
-  <si>
-    <t>DRS - Daily Revenue</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>Go through Soica Project MDB File Application</t>
-  </si>
-  <si>
-    <t>Check Suma Email and Start work application</t>
+    <t>1.  Downloading DRS task done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Downloading InvoicePDF task done (downloading pdf, pdf to csv) </t>
+  </si>
+  <si>
+    <t>1. Correction of Password Management has done.</t>
   </si>
 </sst>
 </file>
@@ -387,7 +234,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -438,18 +285,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="8">
@@ -552,7 +387,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -666,31 +501,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1006,21 +816,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="82.7109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="82.6640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1044,7 +854,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1117,7 +927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="A6" s="47">
         <v>4</v>
       </c>
@@ -1219,7 +1029,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D14" s="50" t="s">
         <v>41</v>
       </c>
@@ -1230,7 +1040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D15" s="50" t="s">
         <v>43</v>
       </c>
@@ -1347,7 +1157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30">
+    <row r="33" spans="1:6" ht="28.8">
       <c r="A33">
         <v>11</v>
       </c>
@@ -1418,7 +1228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>14</v>
       </c>
@@ -1438,7 +1248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30">
+    <row r="40" spans="1:6" ht="28.8">
       <c r="A40">
         <v>15</v>
       </c>
@@ -1458,7 +1268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="45">
+    <row r="41" spans="1:6" ht="28.8">
       <c r="A41">
         <v>16</v>
       </c>
@@ -1516,6 +1326,57 @@
       </c>
       <c r="F44" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>19</v>
+      </c>
+      <c r="B46" s="52">
+        <v>44123</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E46" s="28">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="D47" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="28">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>20</v>
+      </c>
+      <c r="B48" s="52">
+        <v>44123</v>
+      </c>
+      <c r="C48" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="28">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1532,15 +1393,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1643,15 +1504,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1750,18 +1611,18 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1830,213 +1691,93 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="33">
-        <v>44109</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>5</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="33">
-        <v>44110</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>3</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="33">
-        <v>44111</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>3</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="33">
-        <v>44112</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>3</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="33">
-        <v>44113</v>
-      </c>
-      <c r="C8" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="43" t="s">
-        <v>3</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="33">
-        <v>44116</v>
-      </c>
-      <c r="C9" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0.65</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>3</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="33">
-        <v>44117</v>
-      </c>
-      <c r="C10" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>3</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="33">
-        <v>44118</v>
-      </c>
-      <c r="C11" s="61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>5</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="1">
-        <v>15</v>
-      </c>
-      <c r="B12" s="33">
-        <v>44119</v>
-      </c>
-      <c r="C12" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>5</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13" s="1">
-        <v>16</v>
-      </c>
-      <c r="B13" s="33">
-        <v>44120</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>3</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1">
@@ -2145,15 +1886,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2250,21 +1991,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2311,317 +2052,46 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1">
-      <c r="A3" s="26">
-        <v>2</v>
-      </c>
-      <c r="B3" s="53">
-        <v>44106</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="42"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="26">
+    <row r="3" spans="1:7" s="4" customFormat="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:3">
+      <c r="C19" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="53">
-        <v>44107</v>
-      </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="26">
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="9"/>
+      <c r="C21" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="53">
-        <v>44108</v>
-      </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21">
-        <v>44109</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="22">
-        <v>1</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A7" s="20">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21">
-        <v>44110</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="22">
-        <v>1</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A8" s="20">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21">
-        <v>44111</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="20">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21">
-        <v>44112</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A10" s="20">
-        <v>9</v>
-      </c>
-      <c r="B10" s="21">
-        <v>44113</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="26">
-        <v>10</v>
-      </c>
-      <c r="B11" s="53">
-        <v>44114</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="26">
-        <v>11</v>
-      </c>
-      <c r="B12" s="53">
-        <v>44115</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13" s="20">
-        <v>12</v>
-      </c>
-      <c r="B13" s="21">
-        <v>44116</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="22">
-        <v>1</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
-      <c r="A14" s="20">
-        <v>13</v>
-      </c>
-      <c r="B14" s="21">
-        <v>44117</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="22">
-        <v>1</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A15" s="20">
-        <v>14</v>
-      </c>
-      <c r="B15" s="21">
-        <v>44118</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="22">
-        <v>1</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A16" s="20">
-        <v>15</v>
-      </c>
-      <c r="B16" s="21">
-        <v>44119</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="22">
-        <v>1</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="20">
-        <v>16</v>
-      </c>
-      <c r="B17" s="21">
-        <v>44120</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="22">
-        <v>1</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" s="8"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="10"/>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="11"/>
       <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2639,15 +2109,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2747,18 +2217,18 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2784,7 +2254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30">
+    <row r="2" spans="1:7" ht="28.8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2797,7 +2267,7 @@
       <c r="D2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="28">
         <v>1</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -2806,736 +2276,6 @@
       <c r="G2" s="27" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21">
-        <v>44109</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="21">
-        <v>44110</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="22">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21">
-        <v>44111</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="22">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21">
-        <v>44112</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="22">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21">
-        <v>44113</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="22">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21">
-        <v>44116</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="22">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21">
-        <v>44117</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="22">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="21">
-        <v>44118</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="21">
-        <v>44119</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="22">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="21">
-        <v>44120</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="22">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="26">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="31">
-        <v>44106</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="31">
-        <v>44107</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="31">
-        <v>44108</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="31">
-        <v>44109</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="31">
-        <v>44110</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="31">
-        <v>44111</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="31">
-        <v>44112</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="31">
-        <v>44113</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="31">
-        <v>44114</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="40"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="31">
-        <v>44115</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="40"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="31">
-        <v>44116</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="31">
-        <v>44117</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="40"/>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="31">
-        <v>44118</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="40"/>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="31">
-        <v>44119</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="40"/>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="31">
-        <v>44120</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="40"/>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1"/>
-    <row r="22" spans="1:7">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1"/>
@@ -3597,23 +2337,224 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
-  <dimension ref="A1:G29"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="31">
+        <v>44106</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="31">
+        <v>44107</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31">
+        <v>44108</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="31">
+        <v>44109</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3639,7 +2580,118 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:7">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3705,7 +2757,7 @@
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" ht="45">
+    <row r="6" spans="1:7" ht="43.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3718,334 +2770,54 @@
       <c r="D6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="31">
-        <v>44110</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="31">
-        <v>44111</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="31">
-        <v>44112</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="31">
-        <v>44113</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="31">
-        <v>44114</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="31">
-        <v>44115</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="31">
-        <v>44116</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="31">
-        <v>44117</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="31">
-        <v>44118</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="31">
-        <v>44119</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="30.6" customHeight="1">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="31">
-        <v>44120</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="31">
-        <v>44121</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="31">
-        <v>44122</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="31">
-        <v>44123</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="F20" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="31">
-        <v>44124</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" s="4" customFormat="1">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="31">
-        <v>44125</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="E6" s="39">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="20" spans="2:3" s="4" customFormat="1"/>
+    <row r="21" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3" s="4" customFormat="1"/>
+    <row r="25" spans="2:3">
       <c r="C25" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="2:3">
       <c r="B26" s="8"/>
       <c r="C26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="2:3">
       <c r="B27" s="9"/>
       <c r="C27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="2:3">
       <c r="B28" s="10"/>
       <c r="C28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="2:3">
       <c r="B29" s="11"/>
       <c r="C29" t="s">
         <v>10</v>

--- a/REVER_DailyTracker_20201019.xlsx
+++ b/REVER_DailyTracker_20201019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\October\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724B9271-800C-49A3-8E13-FD4EFF4B3C4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794BA1A5-C91F-429B-9508-494CF9430E4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="768" windowWidth="23040" windowHeight="10884" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="115">
   <si>
     <t>Task</t>
   </si>
@@ -218,13 +218,169 @@
     <t>2 Correction of Password Management task is pending</t>
   </si>
   <si>
-    <t>1.  Downloading DRS task done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Downloading InvoicePDF task done (downloading pdf, pdf to csv) </t>
-  </si>
-  <si>
-    <t>1. Correction of Password Management has done.</t>
+    <t>Application- Login page and Front end  sample Layout design. Sample completed</t>
+  </si>
+  <si>
+    <t>Application- Front end  sample 2nd Layout design. Sample completed</t>
+  </si>
+  <si>
+    <t>QMVAR , Hayaai</t>
+  </si>
+  <si>
+    <t>Application- login design and Hayaai Flyer design</t>
+  </si>
+  <si>
+    <t>Hayaai</t>
+  </si>
+  <si>
+    <t>Two sample Flyer design</t>
+  </si>
+  <si>
+    <t>1) Flyer design completed                                                                                       2) ID card created                                                                            3) Name card created</t>
+  </si>
+  <si>
+    <t>Analysis - File Upload - Design completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hayaai </t>
+  </si>
+  <si>
+    <t>Website Translation replaced in php file</t>
+  </si>
+  <si>
+    <t>Hayaai ,QMVAR</t>
+  </si>
+  <si>
+    <t>1) Contact Card 2 samples designed                                      2) QMVAR - 2pages design completed</t>
+  </si>
+  <si>
+    <t>1) Acknowledgement screen designed                                      2) QMVAR - Activity Report page design completed</t>
+  </si>
+  <si>
+    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site &amp; Regression testing on B2C app and Hayaai site</t>
+  </si>
+  <si>
+    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site, Retesting on B2B app &amp; Regression testing on B2C app and Hayaai site</t>
+  </si>
+  <si>
+    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site, Retesting &amp; Regression testing on B2C app and Hayaai site</t>
+  </si>
+  <si>
+    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site. Regression testing on B2C app and Hayaai site</t>
+  </si>
+  <si>
+    <t>QMVAR -Analysis Data page design and alignment issues completed</t>
+  </si>
+  <si>
+    <t>Sanity testing on B2C app, QMVAR site, GSS site and Hayaai site. Regression testing, Retesting on B2C app and Hayaai site</t>
+  </si>
+  <si>
+    <t>creating Setup file</t>
+  </si>
+  <si>
+    <t>Layout Designing</t>
+  </si>
+  <si>
+    <t>Emplogin</t>
+  </si>
+  <si>
+    <t>Adding assests Detatils</t>
+  </si>
+  <si>
+    <t>Adding assests Detatils and responisble view</t>
+  </si>
+  <si>
+    <t>stored management added in Monthly target</t>
+  </si>
+  <si>
+    <t>adding layout in analysis file upload</t>
+  </si>
+  <si>
+    <t>adding layout in analysis file Export</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, SONY SID, QMVAR Setup File Create</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, QMVAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, EMP_RegLogin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, Sony SID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, Sony SID, QMVAR Recovery(CSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, Sony SID, QMVAR (CSS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> best_search_all8, best_report_all8, SID Sony </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, QMVAR Setup File Create, QMVAR CSS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, MrMax import File Check, QMVAR CSS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, Employee RegLogin Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, SONY SID (export import checking)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, CSS QMVAR (Recovery Menu), Sony File Export</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, Sony File Export selenium, </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, QMVAR migration, Sony File Export Selenium</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Selenium log file, Son Seleniumy File Export</t>
+  </si>
+  <si>
+    <t>Sony SID Issue File Checking</t>
+  </si>
+  <si>
+    <t>QMVAR CSS Progress</t>
+  </si>
+  <si>
+    <t>Salary tab Page (Modification) Add Column</t>
+  </si>
+  <si>
+    <t>Employee RegLogin Application All Pages design Changes(Personal Info, Education &amp; experience , Bank Details Completed) tabs Completed</t>
+  </si>
+  <si>
+    <t>Sony Daily RepairSetNp, LogFile Selenium</t>
+  </si>
+  <si>
+    <t>Sony Export,LogFile Selenium</t>
+  </si>
+  <si>
+    <t>DRS Count - Saw Discount changes and Issue</t>
+  </si>
+  <si>
+    <t>DRS Count - Saw Discount Summary &amp; Details</t>
+  </si>
+  <si>
+    <t>DRS - Daily Revenue</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>Go through Soica Project MDB File Application</t>
+  </si>
+  <si>
+    <t>Check Suma Email and Start work application</t>
+  </si>
+  <si>
+    <t>QMVAR -Alignment fixed and Analysis Data Devlopment</t>
   </si>
 </sst>
 </file>
@@ -234,7 +390,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +441,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="8">
@@ -387,7 +555,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -501,6 +669,31 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1326,57 +1519,6 @@
       </c>
       <c r="F44" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>19</v>
-      </c>
-      <c r="B46" s="52">
-        <v>44123</v>
-      </c>
-      <c r="C46" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="E46" s="28">
-        <v>1</v>
-      </c>
-      <c r="F46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="D47" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="E47" s="28">
-        <v>1</v>
-      </c>
-      <c r="F47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>20</v>
-      </c>
-      <c r="B48" s="52">
-        <v>44123</v>
-      </c>
-      <c r="C48" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48" s="28">
-        <v>1</v>
-      </c>
-      <c r="F48" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1611,7 +1753,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1691,93 +1833,213 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33">
+        <v>44109</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>5</v>
+      </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33">
+        <v>44110</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33">
+        <v>44111</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33">
+        <v>44112</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33">
+        <v>44113</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33">
+        <v>44116</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="33">
+        <v>44117</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="33">
+        <v>44118</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>5</v>
+      </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="A12" s="1">
+        <v>15</v>
+      </c>
+      <c r="B12" s="33">
+        <v>44119</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>5</v>
+      </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="A13" s="1">
+        <v>16</v>
+      </c>
+      <c r="B13" s="33">
+        <v>44120</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1">
@@ -1991,10 +2253,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2052,46 +2314,368 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="19" spans="2:3">
-      <c r="C19" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="8"/>
-      <c r="C20" t="s">
+    <row r="3" spans="1:7" s="4" customFormat="1">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="53">
+        <v>44106</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="42"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="9"/>
-      <c r="C21" t="s">
+      <c r="B4" s="53">
+        <v>44107</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="10"/>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="11"/>
-      <c r="C23" t="s">
+      <c r="B5" s="53">
+        <v>44108</v>
+      </c>
+      <c r="C5" s="54"/>
+      <c r="D5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21">
+        <v>44109</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21">
+        <v>44110</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21">
+        <v>44111</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21">
+        <v>44112</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21">
+        <v>44113</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="26">
+        <v>10</v>
+      </c>
+      <c r="B11" s="53">
+        <v>44114</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="26">
+        <v>11</v>
+      </c>
+      <c r="B12" s="53">
+        <v>44115</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="21">
+        <v>44116</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="21">
+        <v>44117</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="22">
+        <v>1</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A15" s="20">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21">
+        <v>44118</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="22">
+        <v>1</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21">
+        <v>44119</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="22">
+        <v>1</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="28.8">
+      <c r="A17" s="20">
+        <v>16</v>
+      </c>
+      <c r="B17" s="21">
+        <v>44120</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="22">
+        <v>1</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1">
+      <c r="A18" s="26">
+        <v>17</v>
+      </c>
+      <c r="B18" s="53">
+        <v>44114</v>
+      </c>
+      <c r="C18" s="54"/>
+      <c r="D18" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1">
+      <c r="A19" s="26">
+        <v>18</v>
+      </c>
+      <c r="B19" s="53">
+        <v>44115</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="28.8">
+      <c r="A20" s="20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="21">
+        <v>44123</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="22">
+        <v>1</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="C24" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="8"/>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="9"/>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="10"/>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="11"/>
+      <c r="C28" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2217,14 +2801,14 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.109375" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" customWidth="1"/>
     <col min="4" max="4" width="44.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.88671875" customWidth="1"/>
     <col min="6" max="6" width="18.109375" customWidth="1"/>
@@ -2267,7 +2851,7 @@
       <c r="D2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="22">
         <v>1</v>
       </c>
       <c r="F2" s="10" t="s">
@@ -2277,24 +2861,236 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="3" spans="1:7" ht="28.8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>44109</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21">
+        <v>44110</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="22">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21">
+        <v>44111</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21">
+        <v>44112</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21">
+        <v>44113</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21">
+        <v>44116</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="22">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21">
+        <v>44117</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21">
+        <v>44118</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="21">
+        <v>44119</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="21">
+        <v>44120</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="22">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
     <row r="13" spans="1:7" s="4" customFormat="1"/>
     <row r="14" spans="1:7" s="4" customFormat="1"/>
     <row r="15" spans="1:7" s="4" customFormat="1"/>
@@ -2342,7 +3138,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2487,24 +3283,230 @@
       </c>
       <c r="G7" s="40"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="31">
+        <v>44110</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="31">
+        <v>44111</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="31">
+        <v>44112</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="31">
+        <v>44113</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="31">
+        <v>44114</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="31">
+        <v>44115</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="31">
+        <v>44116</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="31">
+        <v>44117</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="31">
+        <v>44118</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="31">
+        <v>44119</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="31">
+        <v>44120</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1"/>
+    <row r="22" spans="1:7">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="1:7">
       <c r="B23" s="43" t="s">
         <v>3</v>
       </c>
@@ -2512,13 +3514,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="1:7">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:7">
       <c r="B25" s="25" t="s">
         <v>5</v>
       </c>
@@ -2526,7 +3528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:7">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>10</v>
@@ -2653,8 +3655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD6"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2770,54 +3772,334 @@
       <c r="D6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="39">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="20" spans="2:3" s="4" customFormat="1"/>
-    <row r="21" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3" s="4" customFormat="1"/>
-    <row r="25" spans="2:3">
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="31">
+        <v>44110</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="31">
+        <v>44111</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="31">
+        <v>44112</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="31">
+        <v>44113</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="31">
+        <v>44114</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="31">
+        <v>44115</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="31">
+        <v>44116</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="31">
+        <v>44117</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="31">
+        <v>44118</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="31">
+        <v>44119</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="30.6" customHeight="1">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="31">
+        <v>44120</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="31">
+        <v>44121</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="31">
+        <v>44122</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="31">
+        <v>44123</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="31">
+        <v>44124</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" s="4" customFormat="1">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="31">
+        <v>44125</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="25" spans="1:7">
       <c r="C25" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:7">
       <c r="B26" s="8"/>
       <c r="C26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="1:7">
       <c r="B27" s="9"/>
       <c r="C27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="1:7">
       <c r="B28" s="10"/>
       <c r="C28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:7">
       <c r="B29" s="11"/>
       <c r="C29" t="s">
         <v>10</v>

--- a/REVER_DailyTracker_20201019.xlsx
+++ b/REVER_DailyTracker_20201019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monisha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794BA1A5-C91F-429B-9508-494CF9430E4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A5AEC3-670F-4C4E-8B04-C8BC24A7278A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="116">
   <si>
     <t>Task</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>QMVAR -Alignment fixed and Analysis Data Devlopment</t>
+  </si>
+  <si>
+    <t>Access DB Migration - BIC CAMERA - 1</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +456,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -555,7 +566,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -693,6 +704,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1015,15 +1029,15 @@
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="82.6640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="82.7109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1047,7 +1061,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1120,7 +1134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A6" s="47">
         <v>4</v>
       </c>
@@ -1222,7 +1236,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="D14" s="50" t="s">
         <v>41</v>
       </c>
@@ -1233,7 +1247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="D15" s="50" t="s">
         <v>43</v>
       </c>
@@ -1350,7 +1364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.8">
+    <row r="33" spans="1:6" ht="30">
       <c r="A33">
         <v>11</v>
       </c>
@@ -1421,7 +1435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" ht="30">
       <c r="A38">
         <v>14</v>
       </c>
@@ -1441,7 +1455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="28.8">
+    <row r="40" spans="1:6" ht="30">
       <c r="A40">
         <v>15</v>
       </c>
@@ -1461,7 +1475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="28.8">
+    <row r="41" spans="1:6" ht="45">
       <c r="A41">
         <v>16</v>
       </c>
@@ -1535,15 +1549,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1646,15 +1660,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1752,19 +1766,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2042,13 +2056,25 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="15.75">
+      <c r="A14" s="1">
+        <v>17</v>
+      </c>
+      <c r="B14" s="33">
+        <v>44123</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>3</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1">
@@ -2148,15 +2174,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2255,19 +2281,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2359,7 +2385,7 @@
       <c r="F5" s="55"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A6" s="20">
         <v>5</v>
       </c>
@@ -2380,7 +2406,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A7" s="20">
         <v>6</v>
       </c>
@@ -2401,7 +2427,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A8" s="20">
         <v>7</v>
       </c>
@@ -2443,7 +2469,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A10" s="20">
         <v>9</v>
       </c>
@@ -2536,7 +2562,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A15" s="20">
         <v>14</v>
       </c>
@@ -2557,7 +2583,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A16" s="20">
         <v>15</v>
       </c>
@@ -2578,7 +2604,7 @@
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="28.8">
+    <row r="17" spans="1:7" ht="30">
       <c r="A17" s="20">
         <v>16</v>
       </c>
@@ -2629,7 +2655,7 @@
       <c r="F19" s="26"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="28.8">
+    <row r="20" spans="1:7" ht="30">
       <c r="A20" s="20">
         <v>19</v>
       </c>
@@ -2693,15 +2719,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2804,15 +2830,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2838,7 +2864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8">
+    <row r="2" spans="1:7" ht="30">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2861,7 +2887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8">
+    <row r="3" spans="1:7" ht="30">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2884,7 +2910,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2907,7 +2933,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2930,7 +2956,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2953,7 +2979,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2976,7 +3002,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2999,7 +3025,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3045,7 +3071,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="28.8">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="30">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3141,15 +3167,15 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1">
@@ -3548,15 +3574,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3659,15 +3685,15 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3693,7 +3719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2">
+    <row r="2" spans="1:7" ht="45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3759,7 +3785,7 @@
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" ht="43.2">
+    <row r="6" spans="1:7" ht="45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3780,7 +3806,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3801,7 +3827,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3822,7 +3848,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3843,7 +3869,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3894,7 +3920,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3915,7 +3941,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3936,7 +3962,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3957,7 +3983,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4029,7 +4055,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="43.2">
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="A20" s="1">
         <v>19</v>
       </c>

--- a/REVER_DailyTracker_20201019.xlsx
+++ b/REVER_DailyTracker_20201019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A5AEC3-670F-4C4E-8B04-C8BC24A7278A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A0450F-79FF-4281-B1A6-9EFD16F1E94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="384" windowWidth="23016" windowHeight="12336" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="136">
   <si>
     <t>Task</t>
   </si>
@@ -384,6 +384,72 @@
   </si>
   <si>
     <t>Access DB Migration - BIC CAMERA - 1</t>
+  </si>
+  <si>
+    <t>QMVAR-RPA</t>
+  </si>
+  <si>
+    <t>InvoiceUpdate IW/OW error correction</t>
+  </si>
+  <si>
+    <t>HAYAAI-B2B</t>
+  </si>
+  <si>
+    <t>New API for inserting job sheet details for Pickup</t>
+  </si>
+  <si>
+    <t>wip</t>
+  </si>
+  <si>
+    <t>Correction Job Details API to get Pickup Ack information</t>
+  </si>
+  <si>
+    <t>HAYAAI-B2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In /instantfix/create and instantfix/update:
+Have added  "warranty_type":"OUT" ,so please pass this argument to this APIs,
+Also in Service request have updated job_id also now status would Requested instead of Job_in_progress,also Warranty_type is stored in RST_JOB
+Also in updateimei-&gt; API whatever parameters are passed it is stored in warranty information,the one as same as in add devices
+</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Corrected Job details API and created new API for JobSheet.Also Created new API for technician reaching customer Place</t>
+  </si>
+  <si>
+    <t>13/10/2020</t>
+  </si>
+  <si>
+    <t>Worked on to overcome the security certificate confirmation through Windows registry Key</t>
+  </si>
+  <si>
+    <t>14/10/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAYAAI-B2B </t>
+  </si>
+  <si>
+    <t>To display JobSheet details in B2C ,Repairs tab,
+First call userissues API,in which you will get eq_stock_id.
+Pass that eq_Stock_id to this new acknowldgesheet API</t>
+  </si>
+  <si>
+    <t>15/10/2020</t>
+  </si>
+  <si>
+    <t>16/10/2020</t>
+  </si>
+  <si>
+    <t>have modified the msg and have passed customer address in Push Notification.</t>
+  </si>
+  <si>
+    <t>19/10/2020</t>
+  </si>
+  <si>
+    <t>added new company type Services, with role name as 'Srv_Admin',following functions have been added to this user.</t>
   </si>
 </sst>
 </file>
@@ -393,7 +459,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -455,7 +521,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="128"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -463,6 +529,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF262626"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -566,7 +639,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -707,6 +780,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1029,15 +1111,15 @@
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="82.7109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="104.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="82.6640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="104.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1061,7 +1143,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.9" customHeight="1">
+    <row r="2" spans="1:7" s="19" customFormat="1" ht="28.95" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1134,7 +1216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="A6" s="47">
         <v>4</v>
       </c>
@@ -1236,7 +1318,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D14" s="50" t="s">
         <v>41</v>
       </c>
@@ -1247,7 +1329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="30">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D15" s="50" t="s">
         <v>43</v>
       </c>
@@ -1364,7 +1446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30">
+    <row r="33" spans="1:6" ht="28.8">
       <c r="A33">
         <v>11</v>
       </c>
@@ -1435,7 +1517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="30">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>14</v>
       </c>
@@ -1455,7 +1537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30">
+    <row r="40" spans="1:6" ht="28.8">
       <c r="A40">
         <v>15</v>
       </c>
@@ -1475,7 +1557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="45">
+    <row r="41" spans="1:6" ht="28.8">
       <c r="A41">
         <v>16</v>
       </c>
@@ -1549,15 +1631,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1660,15 +1742,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1766,19 +1848,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2056,7 +2138,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="15.75">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="15.6">
       <c r="A14" s="1">
         <v>17</v>
       </c>
@@ -2170,19 +2252,772 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43840</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33">
+        <v>43961</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="52">
+        <v>43992</v>
+      </c>
+      <c r="C4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="28">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="52">
+        <v>44022</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="28">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="216">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="52">
+        <v>44053</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="28">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="52">
+        <v>44084</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="52">
+        <v>44175</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="28">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="100.8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="28">
+        <v>0.3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="100.8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="46">
+        <v>0.8</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="53">
+        <v>44106</v>
+      </c>
+      <c r="C3" s="54"/>
+      <c r="D3" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="42"/>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1">
+      <c r="A4" s="26">
+        <v>3</v>
+      </c>
+      <c r="B4" s="53">
+        <v>44107</v>
+      </c>
+      <c r="C4" s="54"/>
+      <c r="D4" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="A5" s="26">
+        <v>4</v>
+      </c>
+      <c r="B5" s="53">
+        <v>44108</v>
+      </c>
+      <c r="C5" s="54"/>
+      <c r="D5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21">
+        <v>44109</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A7" s="20">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21">
+        <v>44110</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21">
+        <v>44111</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="20">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21">
+        <v>44112</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21">
+        <v>44113</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="26">
+        <v>10</v>
+      </c>
+      <c r="B11" s="53">
+        <v>44114</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="26">
+        <v>11</v>
+      </c>
+      <c r="B12" s="53">
+        <v>44115</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13" s="20">
+        <v>12</v>
+      </c>
+      <c r="B13" s="21">
+        <v>44116</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
+      <c r="B14" s="21">
+        <v>44117</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="22">
+        <v>1</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A15" s="20">
+        <v>14</v>
+      </c>
+      <c r="B15" s="21">
+        <v>44118</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="22">
+        <v>1</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21">
+        <v>44119</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="22">
+        <v>1</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="28.8">
+      <c r="A17" s="20">
+        <v>16</v>
+      </c>
+      <c r="B17" s="21">
+        <v>44120</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="22">
+        <v>1</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1">
+      <c r="A18" s="26">
+        <v>17</v>
+      </c>
+      <c r="B18" s="53">
+        <v>44114</v>
+      </c>
+      <c r="C18" s="54"/>
+      <c r="D18" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1">
+      <c r="A19" s="26">
+        <v>18</v>
+      </c>
+      <c r="B19" s="53">
+        <v>44115</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="28.8">
+      <c r="A20" s="20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="21">
+        <v>44123</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="22">
+        <v>1</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="C24" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="8"/>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="9"/>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="10"/>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="11"/>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2277,23 +3112,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G28"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="33.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2319,389 +3154,292 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="20">
+    <row r="2" spans="1:7" ht="28.8">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="21">
         <v>44105</v>
       </c>
       <c r="C2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>44109</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21">
+        <v>44110</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="22">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="21">
+        <v>44111</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="21">
+        <v>44112</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="43.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21">
+        <v>44113</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="21">
+        <v>44116</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="22">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="21">
+        <v>44117</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="22">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21">
+        <v>44118</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="22">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="28.8">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="21">
+        <v>44119</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="22">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="D2" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1">
-      <c r="A3" s="26">
-        <v>2</v>
-      </c>
-      <c r="B3" s="53">
-        <v>44106</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="42"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1">
-      <c r="A4" s="26">
-        <v>3</v>
-      </c>
-      <c r="B4" s="53">
-        <v>44107</v>
-      </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
-      <c r="A5" s="26">
+      <c r="B12" s="21">
+        <v>44120</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="22">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="53">
-        <v>44108</v>
-      </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A6" s="20">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21">
-        <v>44109</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="22">
-        <v>1</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A7" s="20">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21">
-        <v>44110</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="22">
-        <v>1</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A8" s="20">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21">
-        <v>44111</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="20">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21">
-        <v>44112</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A10" s="20">
-        <v>9</v>
-      </c>
-      <c r="B10" s="21">
-        <v>44113</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="26">
-        <v>10</v>
-      </c>
-      <c r="B11" s="53">
-        <v>44114</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="26">
-        <v>11</v>
-      </c>
-      <c r="B12" s="53">
-        <v>44115</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13" s="20">
-        <v>12</v>
-      </c>
-      <c r="B13" s="21">
-        <v>44116</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="22">
-        <v>1</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
-      <c r="A14" s="20">
-        <v>13</v>
-      </c>
-      <c r="B14" s="21">
-        <v>44117</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="22">
-        <v>1</v>
-      </c>
-      <c r="F14" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A15" s="20">
-        <v>14</v>
-      </c>
-      <c r="B15" s="21">
-        <v>44118</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="22">
-        <v>1</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A16" s="20">
-        <v>15</v>
-      </c>
-      <c r="B16" s="21">
-        <v>44119</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="22">
-        <v>1</v>
-      </c>
-      <c r="F16" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="30">
-      <c r="A17" s="20">
-        <v>16</v>
-      </c>
-      <c r="B17" s="21">
-        <v>44120</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17" s="22">
-        <v>1</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1">
-      <c r="A18" s="26">
-        <v>17</v>
-      </c>
-      <c r="B18" s="53">
-        <v>44114</v>
-      </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1">
-      <c r="A19" s="26">
-        <v>18</v>
-      </c>
-      <c r="B19" s="53">
-        <v>44115</v>
-      </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="30">
-      <c r="A20" s="20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="21">
-        <v>44123</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="22">
-        <v>1</v>
-      </c>
-      <c r="F20" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="C24" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="8"/>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="10"/>
       <c r="C25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="9"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="11"/>
       <c r="C26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="B27" s="10"/>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="B28" s="11"/>
-      <c r="C28" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2711,23 +3449,430 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39.6" customHeight="1">
+      <c r="A2" s="20">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="22">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21">
+        <v>44105</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="31">
+        <v>44106</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="31">
+        <v>44107</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31">
+        <v>44108</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="31">
+        <v>44109</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="31">
+        <v>44110</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="31">
+        <v>44111</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="31">
+        <v>44112</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="31">
+        <v>44113</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="31">
+        <v>44114</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="31">
+        <v>44115</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="31">
+        <v>44116</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="40"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="31">
+        <v>44117</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="31">
+        <v>44118</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="31">
+        <v>44119</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="31">
+        <v>44120</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1"/>
+    <row r="22" spans="1:7">
+      <c r="C22" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="B23" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="B24" s="9"/>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2822,861 +3967,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="30">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21">
-        <v>44109</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="21">
-        <v>44110</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="22">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21">
-        <v>44111</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="22">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21">
-        <v>44112</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="22">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="45">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21">
-        <v>44113</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="22">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21">
-        <v>44116</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="22">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21">
-        <v>44117</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="22">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="21">
-        <v>44118</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="22">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="30">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="21">
-        <v>44119</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="E11" s="22">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="21">
-        <v>44120</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="22">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="39.6" customHeight="1">
-      <c r="A2" s="20">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="22">
-        <v>1</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="26">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21">
-        <v>44105</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="22">
-        <v>1</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="31">
-        <v>44106</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="31">
-        <v>44107</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="31">
-        <v>44108</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="31">
-        <v>44109</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="31">
-        <v>44110</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="31">
-        <v>44111</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="31">
-        <v>44112</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="31">
-        <v>44113</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="7">
-        <v>1</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="40"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="31">
-        <v>44114</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="40"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="31">
-        <v>44115</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="40"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="31">
-        <v>44116</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="40"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="31">
-        <v>44117</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="40"/>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="31">
-        <v>44118</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="40"/>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="31">
-        <v>44119</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="40"/>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="31">
-        <v>44120</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="40"/>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1"/>
-    <row r="22" spans="1:7">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="B23" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="B25" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1"/>
-    <row r="5" spans="1:7" s="4" customFormat="1"/>
-    <row r="6" spans="1:7" s="4" customFormat="1"/>
-    <row r="7" spans="1:7" s="4" customFormat="1"/>
-    <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1"/>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1"/>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1"/>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="2:3" s="4" customFormat="1"/>
-    <row r="18" spans="2:3" s="4" customFormat="1"/>
-    <row r="19" spans="2:3" s="4" customFormat="1"/>
-    <row r="22" spans="2:3">
-      <c r="C22" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="8"/>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="9"/>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="10"/>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="11"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306E27-97EE-45E4-BF06-4F0178DE4E63}">
   <dimension ref="A1:G29"/>
@@ -3685,15 +3975,15 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3719,7 +4009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="45">
+    <row r="2" spans="1:7" ht="43.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3785,7 +4075,7 @@
       <c r="F5" s="42"/>
       <c r="G5" s="42"/>
     </row>
-    <row r="6" spans="1:7" ht="45">
+    <row r="6" spans="1:7" ht="43.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3806,7 +4096,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="7" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3827,7 +4117,7 @@
       </c>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3848,7 +4138,7 @@
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3869,7 +4159,7 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3920,7 +4210,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3941,7 +4231,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3962,7 +4252,7 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3983,7 +4273,7 @@
       </c>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4055,7 +4345,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
